--- a/biology/Médecine/Liste_de_plantes_ichtiotoxiques_et_insecticides/Liste_de_plantes_ichtiotoxiques_et_insecticides.xlsx
+++ b/biology/Médecine/Liste_de_plantes_ichtiotoxiques_et_insecticides/Liste_de_plantes_ichtiotoxiques_et_insecticides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste contient des plantes réputées ichtiotoxiques (toxique pour les poissons) ou insecticides, et autres animaux à sang froid. Elle n'est pas exhaustive.
 Pour plus de précisions, voir la section sur les Insecticides d'origine végétale sur l'article Insecticide.
@@ -512,19 +524,21 @@
           <t>Plantes ichtiotoxiques et insecticides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cévadille ou sabadilla (Schoenocaulon officinale (Schltdl. &amp; Cham.) A. Gray ex Benth., Mélanthiacées)
-Clidemia hirta (L.) D. Don.[1]
+Clidemia hirta (L.) D. Don.
 Cubé - roténone - (Lonchocarpus utilis A. C. Sm, Fabacées)
 Derris - roténone -
 (Derris scandens (Roxb.) Benth., Fabacées)
 (Derris trifoliata Lour., Fabacées)
-Hirtella racemosa Lam.[1]
-Miconia caudata (Bonpl.) DC.[1]
-Miconia aeruginosa Naud.[1]
-Miconia sp.[1]
-Palicourea lyristipula Wern L.[1]
+Hirtella racemosa Lam.
+Miconia caudata (Bonpl.) DC.
+Miconia aeruginosa Naud.
+Miconia sp.
+Palicourea lyristipula Wern L.
 pin - huile de pin, alcool terpénique - (Pinus pinaster Aiton, Pinacées)
 Pyrèthre d'Afrique (Anacyclus pyrethrum (L.) Link, Astéracées)
 Pyrèthre de Dalmatie (Tanacetum cinerariifolium (Trevir.) Sch. Bip., Astéracées)
